--- a/AppAnest/resources/template/DistribuicaoContratoEscala.xlsx
+++ b/AppAnest/resources/template/DistribuicaoContratoEscala.xlsx
@@ -52,9 +52,6 @@
     <t>QUINTA</t>
   </si>
   <si>
-    <t>SETXA</t>
-  </si>
-  <si>
     <t>SÁBADO</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>DISTRIBUIÇÃO DE CONTRATO ESCALA</t>
+  </si>
+  <si>
+    <t>SEXTA</t>
   </si>
 </sst>
 </file>
@@ -375,33 +375,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,9 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -434,10 +404,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,7 +869,7 @@
   <dimension ref="A1:J352"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -882,81 +882,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27" t="s">
-        <v>12</v>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
+        <v>11</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="35"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="36"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
@@ -970,13 +970,13 @@
         <v>8</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
